--- a/public/imports/products_import.xlsx
+++ b/public/imports/products_import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB520CF-6111-4E62-8913-ECE5253E212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C652C7-FCDE-4355-B2F9-FF26234791E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{68B91BD8-321E-47C1-AAC4-68FA5F54B390}"/>
+    <workbookView xWindow="2505" yWindow="1853" windowWidth="16200" windowHeight="9315" xr2:uid="{68B91BD8-321E-47C1-AAC4-68FA5F54B390}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -105,16 +105,30 @@
   </si>
   <si>
     <t>images/table.jpeg</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>info@asioso.com|+49 89 9545706 10|201 000 002|asioso.com|Sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,13 +151,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -160,9 +177,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F6A6498-1324-4B3A-9CA1-988F544A92E0}" name="Table1" displayName="Table1" ref="A1:J3" totalsRowShown="0">
-  <autoFilter ref="A1:J3" xr:uid="{0F6A6498-1324-4B3A-9CA1-988F544A92E0}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F6A6498-1324-4B3A-9CA1-988F544A92E0}" name="Table1" displayName="Table1" ref="A1:K3" totalsRowShown="0">
+  <autoFilter ref="A1:K3" xr:uid="{0F6A6498-1324-4B3A-9CA1-988F544A92E0}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{424B95E7-7E53-4B52-9EF7-A378720B0F63}" name="name"/>
     <tableColumn id="2" xr3:uid="{2ECB66CE-3701-4FC3-B13D-DBC0A284C790}" name="description"/>
     <tableColumn id="3" xr3:uid="{864AE076-986C-4688-B906-F446FE8B3F6B}" name="image_path"/>
@@ -173,6 +190,7 @@
     <tableColumn id="8" xr3:uid="{6B6F289B-7426-4DF8-B67F-10AE79929D18}" name="status"/>
     <tableColumn id="9" xr3:uid="{AD535EA6-3490-4014-AB43-F90E6985A6C3}" name="brand"/>
     <tableColumn id="10" xr3:uid="{A3AE7DAD-39BA-4E1A-9DAC-9F5D3CCE319B}" name="technicalAttributes"/>
+    <tableColumn id="11" xr3:uid="{093552B7-CCDD-4B5E-A637-7734FA464F55}" name="contacts"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F6FE1-779E-4C53-863B-43A98E255430}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -507,7 +525,7 @@
     <col min="10" max="10" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,8 +556,11 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -570,8 +591,11 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -602,12 +626,19 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{62D5DF16-D6F4-46A6-9F42-09712D34E246}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{B7FCDF9B-7E98-4A52-82C4-BD9B9B8D4B74}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/public/imports/products_import.xlsx
+++ b/public/imports/products_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C652C7-FCDE-4355-B2F9-FF26234791E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA36F46B-5F24-47E5-80AE-BB428C988A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="1853" windowWidth="16200" windowHeight="9315" xr2:uid="{68B91BD8-321E-47C1-AAC4-68FA5F54B390}"/>
+    <workbookView xWindow="-21450" yWindow="2490" windowWidth="16200" windowHeight="9315" xr2:uid="{68B91BD8-321E-47C1-AAC4-68FA5F54B390}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Table</t>
   </si>
   <si>
-    <t>Wooden Chair</t>
-  </si>
-  <si>
     <t>Large table</t>
   </si>
   <si>
@@ -111,6 +108,42 @@
   </si>
   <si>
     <t>info@asioso.com|+49 89 9545706 10|201 000 002|asioso.com|Sales</t>
+  </si>
+  <si>
+    <t>programData</t>
+  </si>
+  <si>
+    <t>Office  Chair|Delivery Included|Foldable, Small Office Chair|Detailed Catalogue provided.|images/chair.jpeg</t>
+  </si>
+  <si>
+    <t>Office Table|Delivery Not Included|Non-movable Office Table|Catalogue Not Provided|images/table.jpeg</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Office Monitor</t>
+  </si>
+  <si>
+    <t>Office Chair</t>
+  </si>
+  <si>
+    <t>images/monitor.jpeg</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>MT003</t>
+  </si>
+  <si>
+    <t>ASUS</t>
+  </si>
+  <si>
+    <t>20cm x 20cm</t>
+  </si>
+  <si>
+    <t>Office Monitor|Delivery Included|Modern Office Monitor|Catalogue Provided|images/monitor.jpeg</t>
   </si>
 </sst>
 </file>
@@ -177,9 +210,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F6A6498-1324-4B3A-9CA1-988F544A92E0}" name="Table1" displayName="Table1" ref="A1:K3" totalsRowShown="0">
-  <autoFilter ref="A1:K3" xr:uid="{0F6A6498-1324-4B3A-9CA1-988F544A92E0}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F6A6498-1324-4B3A-9CA1-988F544A92E0}" name="Table1" displayName="Table1" ref="A1:L4" totalsRowShown="0">
+  <autoFilter ref="A1:L4" xr:uid="{0F6A6498-1324-4B3A-9CA1-988F544A92E0}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{424B95E7-7E53-4B52-9EF7-A378720B0F63}" name="name"/>
     <tableColumn id="2" xr3:uid="{2ECB66CE-3701-4FC3-B13D-DBC0A284C790}" name="description"/>
     <tableColumn id="3" xr3:uid="{864AE076-986C-4688-B906-F446FE8B3F6B}" name="image_path"/>
@@ -191,6 +224,7 @@
     <tableColumn id="9" xr3:uid="{AD535EA6-3490-4014-AB43-F90E6985A6C3}" name="brand"/>
     <tableColumn id="10" xr3:uid="{A3AE7DAD-39BA-4E1A-9DAC-9F5D3CCE319B}" name="technicalAttributes"/>
     <tableColumn id="11" xr3:uid="{093552B7-CCDD-4B5E-A637-7734FA464F55}" name="contacts"/>
+    <tableColumn id="12" xr3:uid="{8912BE4F-2F02-47D1-B65C-9A252111A330}" name="programData" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -513,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F6FE1-779E-4C53-863B-43A98E255430}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -525,7 +559,7 @@
     <col min="10" max="10" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -557,24 +591,27 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>49.99</v>
@@ -583,33 +620,36 @@
         <v>100</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>99.99</v>
@@ -618,27 +658,69 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>119.99</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{62D5DF16-D6F4-46A6-9F42-09712D34E246}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{B7FCDF9B-7E98-4A52-82C4-BD9B9B8D4B74}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{8E9B7DE0-696D-439B-8B63-0264B632D78E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>